--- a/Linhkien.xlsx
+++ b/Linhkien.xlsx
@@ -4,23 +4,25 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="90" windowWidth="18195" windowHeight="6465" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="90" windowWidth="18195" windowHeight="6465" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Attributes" sheetId="5" r:id="rId1"/>
     <sheet name="Màu" sheetId="1" r:id="rId2"/>
     <sheet name="IC" sheetId="2" r:id="rId3"/>
     <sheet name="Nguồn" sheetId="3" r:id="rId4"/>
-    <sheet name="Transitor" sheetId="4" r:id="rId5"/>
-    <sheet name="Jack" sheetId="6" r:id="rId6"/>
-    <sheet name="Led RGB" sheetId="7" r:id="rId7"/>
+    <sheet name="Transitor-C1815" sheetId="4" r:id="rId5"/>
+    <sheet name="Transitor-BC817" sheetId="8" r:id="rId6"/>
+    <sheet name="Jack" sheetId="6" r:id="rId7"/>
+    <sheet name="Led RGB" sheetId="7" r:id="rId8"/>
+    <sheet name="Dientro" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
   <si>
     <t>GND</t>
   </si>
@@ -39,12 +41,45 @@
   <si>
     <t>0.24W</t>
   </si>
+  <si>
+    <t>Ic = 150mm</t>
+  </si>
+  <si>
+    <t>http://pdf1.alldatasheet.com/datasheet-pdf/view/16109/PHILIPS/BC817.html</t>
+  </si>
+  <si>
+    <t>http://glacier.lbl.gov/gtp/DSB/20040709_DSB_REVB.NET</t>
+  </si>
+  <si>
+    <t>http://www.hobby-hour.com/electronics/smdcalc.php</t>
+  </si>
+  <si>
+    <t>SMD</t>
+  </si>
+  <si>
+    <t>1K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R102   </t>
+  </si>
+  <si>
+    <t>SM/R_0603</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R103   </t>
+  </si>
+  <si>
+    <t>10K</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -59,8 +94,30 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -115,6 +172,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -125,10 +188,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -138,8 +202,14 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1106,6 +1176,66 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="8696325" cy="5219700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>276225</xdr:colOff>
       <xdr:row>2</xdr:row>
@@ -1249,7 +1379,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1898,20 +2028,50 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="G24"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="L28" sqref="L28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="24" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G24" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A30"/>
+  <sheetViews>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="M31" sqref="M31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A30" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -1926,11 +2086,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+    <sheetView topLeftCell="A5" workbookViewId="0">
       <selection activeCell="Q23" sqref="Q23"/>
     </sheetView>
   </sheetViews>
@@ -1939,4 +2099,72 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.140625" customWidth="1"/>
+    <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="A1" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
+</worksheet>
 </file>
--- a/Linhkien.xlsx
+++ b/Linhkien.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="90" windowWidth="18195" windowHeight="6465" activeTab="8"/>
+    <workbookView xWindow="240" yWindow="90" windowWidth="18195" windowHeight="6465" tabRatio="784" firstSheet="8" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Attributes" sheetId="5" r:id="rId1"/>
@@ -12,17 +12,24 @@
     <sheet name="IC" sheetId="2" r:id="rId3"/>
     <sheet name="Nguồn" sheetId="3" r:id="rId4"/>
     <sheet name="Transitor-C1815" sheetId="4" r:id="rId5"/>
-    <sheet name="Transitor-BC817" sheetId="8" r:id="rId6"/>
-    <sheet name="Jack" sheetId="6" r:id="rId7"/>
-    <sheet name="Led RGB" sheetId="7" r:id="rId8"/>
-    <sheet name="Dientro" sheetId="9" r:id="rId9"/>
+    <sheet name="NPN SMD S9014 100mA" sheetId="16" r:id="rId6"/>
+    <sheet name="NPN SMD C1815 150mA" sheetId="12" r:id="rId7"/>
+    <sheet name="NPN SMD 2N3904 200mA" sheetId="10" r:id="rId8"/>
+    <sheet name="NPN SMD S9013 500mA" sheetId="15" r:id="rId9"/>
+    <sheet name="NPN SMD MMBT2222A 1A" sheetId="17" r:id="rId10"/>
+    <sheet name="NPN SMD D882 3A" sheetId="11" r:id="rId11"/>
+    <sheet name="PNP SMD Ạ1015 150mA" sheetId="13" r:id="rId12"/>
+    <sheet name="PNP SMP 2N3906 200mA" sheetId="14" r:id="rId13"/>
+    <sheet name="Jack" sheetId="6" r:id="rId14"/>
+    <sheet name="Led RGB" sheetId="7" r:id="rId15"/>
+    <sheet name="Dientro" sheetId="9" r:id="rId16"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="35">
   <si>
     <t>GND</t>
   </si>
@@ -43,9 +50,6 @@
   </si>
   <si>
     <t>Ic = 150mm</t>
-  </si>
-  <si>
-    <t>http://pdf1.alldatasheet.com/datasheet-pdf/view/16109/PHILIPS/BC817.html</t>
   </si>
   <si>
     <t>http://glacier.lbl.gov/gtp/DSB/20040709_DSB_REVB.NET</t>
@@ -74,12 +78,92 @@
   <si>
     <t>10K</t>
   </si>
+  <si>
+    <t>NPN</t>
+  </si>
+  <si>
+    <t>Ic=200mA</t>
+  </si>
+  <si>
+    <t>SOT23</t>
+  </si>
+  <si>
+    <t>D882 SOT89 3A 40V NPN</t>
+  </si>
+  <si>
+    <t>C1815 SOT23 SMD 2SC1815 HF</t>
+  </si>
+  <si>
+    <t>A1015 SOT23 SMD 2SA1015 BA</t>
+  </si>
+  <si>
+    <r>
+      <t>2SA1015 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>50V 150mA</t>
+    </r>
+  </si>
+  <si>
+    <t>PNP SMD Transistor (No Pb, GP- Green Part)</t>
+  </si>
+  <si>
+    <t>SOT-23 Package</t>
+  </si>
+  <si>
+    <t>Tương thích với C1815</t>
+  </si>
+  <si>
+    <t>2N3906 MMBT3906 PNP SOT23 (200mA) SMD</t>
+  </si>
+  <si>
+    <t>S9013 NPN 20V 500MA SOT-23 SMD</t>
+  </si>
+  <si>
+    <r>
+      <t>S9014 NPN 45V 100MA SOT-23 SMD</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="24"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>http://www.chipn24.com</t>
+  </si>
+  <si>
+    <t>http://www.chipn24.com/ct/chi-tiet/877/transistor-dan-d882-sot89-3a-40v-npn.html</t>
+  </si>
+  <si>
+    <t>1000d</t>
+  </si>
+  <si>
+    <t>http://banlinhkien.vn/goods-1869-d882-2sd882-npn-3a-to252-smd.html</t>
+  </si>
+  <si>
+    <t>1500d</t>
+  </si>
+  <si>
+    <t>http://www.tme.vn/Product.aspx?id=642#page=pro_info</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -115,6 +199,48 @@
       <color theme="1"/>
       <name val="Arial Unicode MS"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="24"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="24"/>
+      <color rgb="FFFF0000"/>
+      <name val="Courier New"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="11">
@@ -192,7 +318,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -207,6 +333,23 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -271,20 +414,20 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>409053</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>161761</xdr:rowOff>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -307,8 +450,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2933700" y="1704975"/>
-          <a:ext cx="4180953" cy="1314286"/>
+          <a:off x="685800" y="457200"/>
+          <a:ext cx="2095500" cy="2095500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -317,271 +460,78 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>10</xdr:row>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="4" name="Straight Connector 3"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2838450" y="1962150"/>
-          <a:ext cx="1266825" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="25400">
-          <a:solidFill>
-            <a:schemeClr val="accent6">
-              <a:lumMod val="60000"/>
-              <a:lumOff val="40000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="5" name="Straight Connector 4"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5905500" y="1952625"/>
-          <a:ext cx="1266825" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="25400">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="31" name="Straight Connector 30"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1790700" y="2438400"/>
-          <a:ext cx="1266825" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="25400">
-          <a:solidFill>
-            <a:srgbClr val="0070C0"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="37" name="Straight Connector 36"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6686550" y="2438400"/>
-          <a:ext cx="1266825" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="25400">
-          <a:solidFill>
-            <a:srgbClr val="00B050"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="38" name="Straight Connector 37"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6715125" y="2171700"/>
-          <a:ext cx="1266825" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="25400">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3533775" y="247650"/>
+          <a:ext cx="5676900" cy="5019675"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -604,8 +554,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1390650" y="400050"/>
-          <a:ext cx="1905000" cy="1905000"/>
+          <a:off x="400050" y="238125"/>
+          <a:ext cx="7248525" cy="5505450"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -614,173 +564,133 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>47626</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>600076</xdr:colOff>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8191500" y="390525"/>
+          <a:ext cx="1990725" cy="2562225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="3" name="Straight Connector 2"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="2428875" y="1952626"/>
-          <a:ext cx="1" cy="1114424"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="25400">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>180976</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>123826</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="6" name="Straight Connector 5"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="2562225" y="1895476"/>
-          <a:ext cx="1" cy="1114424"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="25400">
-          <a:solidFill>
-            <a:srgbClr val="C00000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>457201</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="7" name="Straight Connector 6"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="2286000" y="1905001"/>
-          <a:ext cx="1" cy="1114424"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="25400">
-          <a:solidFill>
-            <a:schemeClr val="accent6">
-              <a:lumMod val="60000"/>
-              <a:lumOff val="40000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8239125" y="3143250"/>
+          <a:ext cx="8420100" cy="2219325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>371898</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>17469</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -803,6 +713,1053 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="7620000" cy="7620000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8210550" y="180975"/>
+          <a:ext cx="6257925" cy="1743075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8162925" y="2162175"/>
+          <a:ext cx="7572375" cy="1609725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2714625" y="542925"/>
+          <a:ext cx="2638425" cy="2781300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Straight Connector 2"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1571625" y="2352675"/>
+          <a:ext cx="1914525" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="Straight Connector 5"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1638300" y="2809875"/>
+          <a:ext cx="1914525" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing14.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>434975</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3228975" y="666751"/>
+          <a:ext cx="5740400" cy="4305300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Straight Connector 2"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2238375" y="2628900"/>
+          <a:ext cx="1724025" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="Straight Connector 4"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2228850" y="2819400"/>
+          <a:ext cx="1724025" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="Straight Connector 5"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2238375" y="3086100"/>
+          <a:ext cx="1724025" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="Straight Connector 6"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2228850" y="3362325"/>
+          <a:ext cx="1724025" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:srgbClr val="0070C0"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>409053</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>161761</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2933700" y="1704975"/>
+          <a:ext cx="4180953" cy="1314286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="Straight Connector 3"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2838450" y="1962150"/>
+          <a:ext cx="1266825" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="60000"/>
+              <a:lumOff val="40000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="Straight Connector 4"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5905500" y="1952625"/>
+          <a:ext cx="1266825" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="31" name="Straight Connector 30"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1790700" y="2438400"/>
+          <a:ext cx="1266825" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:srgbClr val="0070C0"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="37" name="Straight Connector 36"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6686550" y="2438400"/>
+          <a:ext cx="1266825" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="38" name="Straight Connector 37"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6715125" y="2171700"/>
+          <a:ext cx="1266825" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1390650" y="400050"/>
+          <a:ext cx="1905000" cy="1905000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>47626</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>600076</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Straight Connector 2"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2428875" y="1952626"/>
+          <a:ext cx="1" cy="1114424"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>180976</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>123826</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="Straight Connector 5"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2562225" y="1895476"/>
+          <a:ext cx="1" cy="1114424"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>457201</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="Straight Connector 6"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2286000" y="1905001"/>
+          <a:ext cx="1" cy="1114424"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="60000"/>
+              <a:lumOff val="40000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>371898</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>17469</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
           <a:off x="981075" y="466725"/>
           <a:ext cx="4877223" cy="3741744"/>
         </a:xfrm>
@@ -1182,10 +2139,646 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
       <xdr:row>27</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="5743575" cy="5200650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6315075" y="57150"/>
+          <a:ext cx="8467725" cy="4467225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="552450" y="447675"/>
+          <a:ext cx="4152900" cy="3238500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5219700" y="361950"/>
+          <a:ext cx="8553450" cy="4800600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1476375" y="457200"/>
+          <a:ext cx="3333750" cy="3333750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5724525" y="561975"/>
+          <a:ext cx="3609975" cy="2124075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5467350" y="3295650"/>
+          <a:ext cx="7429500" cy="2286000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10001250" y="447675"/>
+          <a:ext cx="1981200" cy="2428875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="5724525" cy="5048250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6057900" y="2571750"/>
+          <a:ext cx="6981825" cy="1609725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5943600" y="0"/>
+          <a:ext cx="3609975" cy="2124075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9886950" y="19050"/>
+          <a:ext cx="1981200" cy="2428875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1210,7 +2803,7 @@
       <xdr:spPr bwMode="auto">
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="8696325" cy="5219700"/>
+          <a:ext cx="6553200" cy="4238625"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1229,396 +2822,114 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="3" name="Picture 2"/>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
+        <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2714625" y="542925"/>
-          <a:ext cx="2638425" cy="2781300"/>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7038975" y="2733675"/>
+          <a:ext cx="7362825" cy="1476375"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="3" name="Straight Connector 2"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="1571625" y="2352675"/>
-          <a:ext cx="1914525" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="25400">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="6" name="Straight Connector 5"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="1638300" y="2809875"/>
-          <a:ext cx="1914525" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="25400">
-          <a:solidFill>
-            <a:srgbClr val="C00000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>95251</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>434975</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>19051</xdr:rowOff>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="4" name="Picture 3"/>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
+        <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3228975" y="666751"/>
-          <a:ext cx="5740400" cy="4305300"/>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6943725" y="133350"/>
+          <a:ext cx="1981200" cy="2428875"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="3" name="Straight Connector 2"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2238375" y="2628900"/>
-          <a:ext cx="1724025" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="25400">
-          <a:solidFill>
-            <a:srgbClr val="C00000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="5" name="Straight Connector 4"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2228850" y="2819400"/>
-          <a:ext cx="1724025" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="25400">
-          <a:solidFill>
-            <a:srgbClr val="00B050"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="6" name="Straight Connector 5"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2238375" y="3086100"/>
-          <a:ext cx="1724025" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="25400">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="7" name="Straight Connector 6"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2228850" y="3362325"/>
-          <a:ext cx="1724025" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="25400">
-          <a:solidFill>
-            <a:srgbClr val="0070C0"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1932,6 +3243,247 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R8" sqref="R8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A24" r:id="rId1" location="page=pro_info"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A17:J31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="17" spans="1:10" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="B17" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="J30" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="J31" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A30" r:id="rId1"/>
+    <hyperlink ref="A31" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B33:B40"/>
+  <sheetViews>
+    <sheetView topLeftCell="B25" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="33" spans="2:2" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="B33" s="15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B34" s="14"/>
+    </row>
+    <row r="35" spans="2:2" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="B35" s="16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="B36" s="17" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="B37" s="17" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="B38" s="17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B40" s="18" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B40" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A42:A44"/>
+  <sheetViews>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A44" sqref="A44"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="42" spans="1:1" ht="30" x14ac:dyDescent="0.4">
+      <c r="A42" s="13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O18" sqref="O18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="Q23" sqref="Q23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.140625" customWidth="1"/>
+    <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="A1" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E23"/>
@@ -2049,22 +3601,27 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A30"/>
+  <dimension ref="A30:A31"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="M31" sqref="M31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" s="9" t="s">
-        <v>7</v>
+    <row r="30" spans="1:1" ht="32.25" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" s="13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="9" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A30" r:id="rId1"/>
+    <hyperlink ref="A31" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId2"/>
@@ -2073,98 +3630,101 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A22:B28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O18" sqref="O18"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="22" spans="1:2" ht="30" x14ac:dyDescent="0.4">
+      <c r="B22" s="13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A28" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A22:E25"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="Q23" sqref="Q23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D22" t="s">
+        <v>16</v>
+      </c>
+      <c r="E22" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D23" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A25" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A29:A31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O24" sqref="O24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="5.140625" customWidth="1"/>
-    <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" t="s">
-        <v>13</v>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="9" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1"/>
-    <hyperlink ref="A1" r:id="rId2"/>
+    <hyperlink ref="A31" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Linhkien.xlsx
+++ b/Linhkien.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="90" windowWidth="18195" windowHeight="6465" tabRatio="784" firstSheet="8" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="90" windowWidth="18195" windowHeight="6465" tabRatio="784" firstSheet="8" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="Attributes" sheetId="5" r:id="rId1"/>
@@ -20,9 +20,10 @@
     <sheet name="NPN SMD D882 3A" sheetId="11" r:id="rId11"/>
     <sheet name="PNP SMD Ạ1015 150mA" sheetId="13" r:id="rId12"/>
     <sheet name="PNP SMP 2N3906 200mA" sheetId="14" r:id="rId13"/>
-    <sheet name="Jack" sheetId="6" r:id="rId14"/>
-    <sheet name="Led RGB" sheetId="7" r:id="rId15"/>
-    <sheet name="Dientro" sheetId="9" r:id="rId16"/>
+    <sheet name="AMS1117 1A" sheetId="18" r:id="rId14"/>
+    <sheet name="Jack" sheetId="6" r:id="rId15"/>
+    <sheet name="Led RGB" sheetId="7" r:id="rId16"/>
+    <sheet name="Dientro" sheetId="9" r:id="rId17"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -840,6 +841,110 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6115050" y="1419225"/>
+          <a:ext cx="4305300" cy="1333500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="28575" y="247650"/>
+          <a:ext cx="5753100" cy="4133850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing14.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>276225</xdr:colOff>
       <xdr:row>2</xdr:row>
@@ -983,7 +1088,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing15.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -3390,6 +3495,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="O18" sqref="O18"/>
     </sheetView>
@@ -3401,7 +3521,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -3416,7 +3536,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
@@ -3632,7 +3752,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A22:B28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+    <sheetView topLeftCell="F16" workbookViewId="0">
       <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>

--- a/Linhkien.xlsx
+++ b/Linhkien.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="90" windowWidth="18195" windowHeight="6465" tabRatio="784" firstSheet="8" activeTab="13"/>
+    <workbookView xWindow="240" yWindow="90" windowWidth="18195" windowHeight="6465" tabRatio="784" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Attributes" sheetId="5" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="37">
   <si>
     <t>GND</t>
   </si>
@@ -158,6 +158,12 @@
   </si>
   <si>
     <t>http://www.tme.vn/Product.aspx?id=642#page=pro_info</t>
+  </si>
+  <si>
+    <t>4: iK + 5V</t>
+  </si>
+  <si>
+    <t>2: switch + 0V</t>
   </si>
 </sst>
 </file>
@@ -3495,7 +3501,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
@@ -3670,14 +3676,25 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="D17:D18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N19" sqref="N19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="17" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -3688,7 +3705,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
